--- a/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
+++ b/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="281">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -294,13 +294,16 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-30T15:16:27Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dda18cab1a8ca35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.d63cef48fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">28/06/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-28T11:08:03Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9f905c71d72c353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.ed4dab6564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -317,13 +320,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-30T15:16:28Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7c086ff4bb4f82ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.1ccf021564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:08:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca1a580fb9947c5f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.fabd5882e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -334,10 +337,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">b1fe2d32e5811d75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.c3dd28de65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">a29fefb72bf6851d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.964bf0097c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -348,10 +351,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">f396acb7a918e480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.90abdfb96c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:08:05Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5dd4d2d08890fb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.ed25f09c6a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -407,10 +413,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-30T15:16:29Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dd22866f392b4e86</t>
+    <t xml:space="preserve">bcf04051095d08bc</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -478,7 +481,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5670b230d65f4c7d</t>
+    <t xml:space="preserve">9aad60600bfa691e</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
@@ -499,10 +502,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">c8af5d04ad8b4b6b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.5d60292962^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">371f35fe34c38ab8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.447814d503^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -513,13 +516,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-30T15:16:30Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb17df9212168fa2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b8981de7a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:08:06Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abd12ac26028cc0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b16a712f28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
@@ -530,10 +533,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">bd2f0e8ebd7d20ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.febeb5452d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">937e3d0021dc7d95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.5e126b1a7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
@@ -544,10 +547,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">7199b405cb0bd4ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.73bbe68a60^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">08e5fccf79f4994b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b5fcab4e07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
@@ -558,10 +561,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">d50091b7781e51a0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.15021256be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">7944411e762856f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.75bb782c0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
@@ -572,13 +575,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-30T15:16:31Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ef092d95314851b4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.e8f5c57030^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:08:07Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48baeb1ff4b3565f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b725af42c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
@@ -589,10 +592,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">94afb574140b76bf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.e617da316d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2ad2367e545082fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.521820a437^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
@@ -603,13 +606,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-05-30T15:16:32Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">547c05361fd91d25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.aa637a6efa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">8702f1aa8717b58f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.525d35d202^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
@@ -653,19 +653,16 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:33Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04424f8228e4521c</t>
+    <t xml:space="preserve">2023-06-28T11:09:07Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9e5b8edb6a4642b8</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:34Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1c3a69a758280130</t>
+    <t xml:space="preserve">6c6c08f7d4d1bb24</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -680,13 +677,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:32Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8adcaba4de8ba0a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.67ce57abf4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:09:05Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3263cf2e25d221b6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.7321fff1d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -698,10 +695,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">62515400f30459a6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.3a06696e26^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:09:06Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b835a688515b103b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.23d1b37c3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -713,10 +713,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">14ec1d62f7f087a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.f93fc83db1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">5075cd16c7080d08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.1ef19a437a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT4</t>
@@ -728,10 +728,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">fa7ceea446bab7f4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.b5323ccf5c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">8009993b351da950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.e0ed9d95e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -741,10 +741,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">e16bbdd19d5d29cb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.e4ca8a6075^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">280f11f8441ebb43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.bc41446822^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
@@ -755,10 +755,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">ceb0d7e4d27ce420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.5e4009b7d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:09:08Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ef312f44d11518c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.4ac6ed43a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT7_KO</t>
@@ -769,13 +772,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:35Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d78a80664344345c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.3c3d361438^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">db49902b45109119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.40875097e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -786,10 +786,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">a154786b6ae04112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.5f04867604^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">33dec3b70c6dfa6c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.1f32349700^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
@@ -800,13 +800,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:36Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f32816e2c670cb59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.22a823ddfd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:09:09Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bc043c38f9a527b7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.f574902808^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
@@ -817,10 +817,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">d5df9ec9aabaee69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.fd08565ed0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">eb5e2535382ee123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.91a0e6bb94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT11_KO</t>
@@ -831,10 +831,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">d1551e8b9281e2ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.b0ac3ee6bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">bb8a35c64b86251f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.fc80418c8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
@@ -845,10 +845,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">c985a6133ca4a775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.c6925de681^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">977766f733552b8e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.5bcd4a173b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -858,13 +858,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:37Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13ecf7addad202cb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.0e9e21911c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">d8e1822297329377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.297fe0622f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -874,10 +871,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">5da734ea585d9a76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.05323a8d7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:09:10Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5e9f902ef1b2da41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.04599a9275^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -888,10 +888,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">4a58b8beb95666e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.e96d2691f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">7e9d1a6accf2b863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.96c373873a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -902,13 +902,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-05T09:06:38Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e440015ee59e7095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.b74577187e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">584b241283a33a80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.0c4117e19f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -959,10 +956,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">8881e0e1565cec0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.d09a44387e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-06-28T11:09:11Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1399f6bd0b965bc9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.5813dc0c9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -973,10 +973,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">bdc7c31b5137226d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.eec77e6f6c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">45a40b72fbd1d62c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.59aa55fea9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1366,7 +1366,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1479,7 +1479,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1504,10 +1504,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1862,11 +1858,11 @@
   <dimension ref="A1:T581"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2120,20 +2116,20 @@
       <c r="E10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="28" t="n">
-        <v>45076</v>
+      <c r="F10" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -2145,7 +2141,7 @@
       <c r="R10" s="30"/>
       <c r="S10" s="31"/>
       <c r="T10" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,25 +2155,25 @@
         <v>49</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="28" t="n">
-        <v>45076</v>
+        <v>59</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -2189,7 +2185,7 @@
       <c r="R11" s="30"/>
       <c r="S11" s="31"/>
       <c r="T11" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,25 +2199,25 @@
         <v>49</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="28" t="n">
-        <v>45076</v>
+        <v>64</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -2233,7 +2229,7 @@
       <c r="R12" s="30"/>
       <c r="S12" s="31"/>
       <c r="T12" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,25 +2243,25 @@
         <v>49</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="28" t="n">
-        <v>45076</v>
+        <v>68</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -2277,10 +2273,10 @@
       <c r="R13" s="30"/>
       <c r="S13" s="31"/>
       <c r="T13" s="32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>29</v>
       </c>
@@ -2291,45 +2287,45 @@
         <v>49</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="28" t="n">
-        <v>45076</v>
+        <v>73</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="29"/>
       <c r="L14" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
       <c r="T14" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,45 +2339,45 @@
         <v>49</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="28" t="n">
-        <v>45076</v>
+        <v>80</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="29"/>
       <c r="L15" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N15" s="29"/>
       <c r="O15" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="29"/>
       <c r="R15" s="30"/>
       <c r="S15" s="31"/>
       <c r="T15" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2391,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -2411,7 +2407,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
@@ -2429,45 +2425,45 @@
         <v>49</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="28" t="n">
-        <v>45076</v>
+        <v>86</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="29"/>
       <c r="L17" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N17" s="29"/>
       <c r="O17" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
       <c r="S17" s="31"/>
       <c r="T17" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,45 +2477,45 @@
         <v>49</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="28" t="n">
-        <v>45076</v>
+        <v>90</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="29"/>
       <c r="L18" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N18" s="29"/>
       <c r="O18" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
       <c r="T18" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,45 +2529,45 @@
         <v>49</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="28" t="n">
-        <v>45076</v>
+        <v>95</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N19" s="29"/>
       <c r="O19" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
       <c r="S19" s="31"/>
       <c r="T19" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,45 +2581,45 @@
         <v>49</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="28" t="n">
-        <v>45076</v>
+        <v>99</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="29"/>
       <c r="L20" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M20" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N20" s="29"/>
       <c r="O20" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
       <c r="T20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,45 +2633,45 @@
         <v>49</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="28" t="n">
-        <v>45076</v>
+        <v>103</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
       <c r="S21" s="31"/>
       <c r="T21" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,45 +2685,45 @@
         <v>49</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="28" t="n">
-        <v>45076</v>
+        <v>107</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N22" s="29"/>
       <c r="O22" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
       <c r="T22" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,45 +2737,45 @@
         <v>49</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="28" t="n">
-        <v>45076</v>
+        <v>112</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N23" s="29"/>
       <c r="O23" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="30"/>
       <c r="S23" s="31"/>
       <c r="T23" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,16 +2789,16 @@
         <v>49</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="28" t="n">
-        <v>45076</v>
+        <v>116</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H24" s="28" t="s">
         <v>117</v>
@@ -2811,27 +2807,27 @@
         <v>118</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
       <c r="T24" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +2851,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K25" s="29" t="s">
         <v>121</v>
@@ -2869,7 +2865,7 @@
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
       <c r="T25" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,12 +2884,12 @@
       <c r="E26" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="35"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K26" s="29" t="s">
         <v>121</v>
@@ -2907,7 +2903,7 @@
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
       <c r="T26" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,12 +2922,12 @@
       <c r="E27" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="35"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
       <c r="J27" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K27" s="29" t="s">
         <v>121</v>
@@ -2945,7 +2941,7 @@
       <c r="R27" s="30"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,12 +2960,12 @@
       <c r="E28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="35"/>
+      <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28" s="29" t="s">
         <v>121</v>
@@ -2983,7 +2979,7 @@
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
       <c r="T28" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,10 +2996,10 @@
         <v>129</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="35" t="n">
-        <v>45082</v>
+        <v>73</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>130</v>
@@ -3012,30 +3008,30 @@
         <v>131</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
       <c r="S29" s="31"/>
       <c r="T29" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,42 +3048,42 @@
         <v>132</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="35" t="n">
-        <v>45082</v>
+        <v>80</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G30" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="28" t="s">
-        <v>134</v>
-      </c>
       <c r="I30" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N30" s="29"/>
       <c r="O30" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P30" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="29"/>
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
       <c r="T30" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,12 +3097,12 @@
         <v>128</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -3117,13 +3113,13 @@
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
       <c r="P31" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q31" s="29"/>
       <c r="R31" s="30"/>
       <c r="S31" s="31"/>
       <c r="T31" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,25 +3133,25 @@
         <v>128</v>
       </c>
       <c r="D32" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="F32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="35" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G32" s="28" t="s">
+      <c r="H32" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="I32" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="I32" s="28" t="s">
-        <v>140</v>
-      </c>
       <c r="J32" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
@@ -3167,7 +3163,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
       <c r="T32" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,16 +3177,16 @@
         <v>128</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="F33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="F33" s="35" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>130</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>143</v>
@@ -3199,7 +3195,7 @@
         <v>144</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
@@ -3211,7 +3207,7 @@
       <c r="R33" s="30"/>
       <c r="S33" s="31"/>
       <c r="T33" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,11 +3226,11 @@
       <c r="E34" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F34" s="35" t="n">
-        <v>45082</v>
+      <c r="F34" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H34" s="28" t="s">
         <v>147</v>
@@ -3243,7 +3239,7 @@
         <v>148</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
@@ -3255,7 +3251,7 @@
       <c r="R34" s="30"/>
       <c r="S34" s="31"/>
       <c r="T34" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,8 +3270,8 @@
       <c r="E35" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="F35" s="35" t="n">
-        <v>45082</v>
+      <c r="F35" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>130</v>
@@ -3287,7 +3283,7 @@
         <v>152</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
@@ -3299,7 +3295,7 @@
       <c r="R35" s="30"/>
       <c r="S35" s="31"/>
       <c r="T35" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,11 +3314,11 @@
       <c r="E36" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F36" s="35" t="n">
-        <v>45082</v>
+      <c r="F36" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H36" s="28" t="s">
         <v>155</v>
@@ -3331,27 +3327,27 @@
         <v>156</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M36" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N36" s="29"/>
       <c r="O36" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="29"/>
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
       <c r="T36" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,40 +3366,40 @@
       <c r="E37" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="35" t="n">
-        <v>45082</v>
+      <c r="F37" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M37" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P37" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="29"/>
       <c r="R37" s="30"/>
       <c r="S37" s="31"/>
       <c r="T37" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,16 +3413,16 @@
         <v>128</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="35" t="n">
-        <v>45082</v>
+        <v>163</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H38" s="28" t="s">
         <v>164</v>
@@ -3435,27 +3431,27 @@
         <v>165</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="29"/>
       <c r="L38" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M38" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N38" s="29"/>
       <c r="O38" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="29"/>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
       <c r="T38" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,11 +3470,11 @@
       <c r="E39" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="35" t="n">
-        <v>45082</v>
+      <c r="F39" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>168</v>
@@ -3487,27 +3483,27 @@
         <v>169</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N39" s="29"/>
       <c r="O39" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="29"/>
       <c r="R39" s="30"/>
       <c r="S39" s="31"/>
       <c r="T39" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,8 +3522,8 @@
       <c r="E40" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="35" t="n">
-        <v>45082</v>
+      <c r="F40" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>172</v>
@@ -3539,27 +3535,27 @@
         <v>174</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40" s="29"/>
       <c r="L40" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N40" s="29"/>
       <c r="O40" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P40" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="29"/>
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
       <c r="T40" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,8 +3574,8 @@
       <c r="E41" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F41" s="35" t="n">
-        <v>45082</v>
+      <c r="F41" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>172</v>
@@ -3591,27 +3587,27 @@
         <v>178</v>
       </c>
       <c r="J41" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41" s="29"/>
       <c r="L41" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M41" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N41" s="29"/>
       <c r="O41" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P41" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="29"/>
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
       <c r="T41" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,8 +3626,8 @@
       <c r="E42" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="35" t="n">
-        <v>45082</v>
+      <c r="F42" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G42" s="28" t="s">
         <v>172</v>
@@ -3643,27 +3639,27 @@
         <v>182</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42" s="29"/>
       <c r="L42" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M42" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N42" s="29"/>
       <c r="O42" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="29"/>
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
       <c r="T42" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,8 +3678,8 @@
       <c r="E43" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="35" t="n">
-        <v>45082</v>
+      <c r="F43" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G43" s="28" t="s">
         <v>172</v>
@@ -3695,27 +3691,27 @@
         <v>186</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43" s="29"/>
       <c r="L43" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M43" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P43" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="29"/>
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
       <c r="T43" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,40 +3730,40 @@
       <c r="E44" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="35" t="n">
-        <v>45082</v>
+      <c r="F44" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G44" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="I44" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="I44" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="J44" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K44" s="29"/>
       <c r="L44" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M44" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N44" s="29"/>
       <c r="O44" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P44" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q44" s="29"/>
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
       <c r="T44" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,16 +3777,16 @@
         <v>128</v>
       </c>
       <c r="D45" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="F45" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="F45" s="35" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>189</v>
       </c>
       <c r="H45" s="28" t="s">
         <v>194</v>
@@ -3799,27 +3795,27 @@
         <v>195</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M45" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N45" s="29"/>
       <c r="O45" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="29"/>
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
       <c r="T45" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,11 +3834,11 @@
       <c r="E46" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F46" s="35" t="n">
-        <v>45082</v>
+      <c r="F46" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H46" s="28" t="s">
         <v>198</v>
@@ -3851,27 +3847,27 @@
         <v>199</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M46" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N46" s="29"/>
       <c r="O46" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P46" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="29"/>
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
       <c r="T46" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,40 +3886,40 @@
       <c r="E47" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="35" t="n">
-        <v>45082</v>
+      <c r="F47" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="G47" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="I47" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="I47" s="28" t="s">
-        <v>204</v>
-      </c>
       <c r="J47" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N47" s="29"/>
       <c r="O47" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="29"/>
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
       <c r="T47" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,17 +3933,17 @@
         <v>128</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F48" s="35"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
       <c r="J48" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K48" s="29" t="s">
         <v>121</v>
@@ -3961,7 +3957,7 @@
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
       <c r="T48" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,17 +3971,17 @@
         <v>128</v>
       </c>
       <c r="D49" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E49" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="28"/>
       <c r="G49" s="34"/>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
       <c r="J49" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K49" s="29" t="s">
         <v>121</v>
@@ -3999,7 +3995,7 @@
       <c r="R49" s="30"/>
       <c r="S49" s="31"/>
       <c r="T49" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,17 +4009,17 @@
         <v>128</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="35"/>
+      <c r="F50" s="28"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
       <c r="J50" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K50" s="29" t="s">
         <v>121</v>
@@ -4037,7 +4033,7 @@
       <c r="R50" s="30"/>
       <c r="S50" s="31"/>
       <c r="T50" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,17 +4047,17 @@
         <v>128</v>
       </c>
       <c r="D51" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51" s="35"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
       <c r="J51" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K51" s="29" t="s">
         <v>121</v>
@@ -4075,7 +4071,7 @@
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
       <c r="T51" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,17 +4085,17 @@
         <v>128</v>
       </c>
       <c r="D52" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="35"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
       <c r="J52" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K52" s="29" t="s">
         <v>121</v>
@@ -4113,7 +4109,7 @@
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
       <c r="T52" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,45 +4123,45 @@
         <v>128</v>
       </c>
       <c r="D53" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="F53" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="35" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H53" s="34" t="s">
+      <c r="H53" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="I53" s="34" t="s">
+      <c r="I53" s="28" t="s">
         <v>218</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K53" s="29"/>
       <c r="L53" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N53" s="29"/>
       <c r="O53" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P53" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="29"/>
       <c r="R53" s="30"/>
       <c r="S53" s="31"/>
       <c r="T53" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,40 +4180,40 @@
       <c r="E54" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F54" s="35" t="n">
-        <v>45082</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="H54" s="34" t="s">
+      <c r="F54" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="I54" s="34" t="s">
+      <c r="I54" s="28" t="s">
         <v>222</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K54" s="29"/>
       <c r="L54" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M54" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N54" s="29"/>
       <c r="O54" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q54" s="29"/>
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
       <c r="T54" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10630,10 +10626,10 @@
       <c r="B2" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10644,10 +10640,10 @@
       <c r="B3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10658,10 +10654,10 @@
       <c r="B4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10672,10 +10668,10 @@
       <c r="B5" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10686,10 +10682,10 @@
       <c r="B6" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10700,10 +10696,10 @@
       <c r="B7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>242</v>
       </c>
     </row>
@@ -10714,10 +10710,10 @@
       <c r="B8" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>244</v>
       </c>
     </row>
@@ -10728,10 +10724,10 @@
       <c r="B9" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>247</v>
       </c>
     </row>
@@ -10742,10 +10738,10 @@
       <c r="B10" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C10" s="36" t="n">
+      <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>249</v>
       </c>
     </row>
@@ -10756,10 +10752,10 @@
       <c r="B11" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="36" t="n">
+      <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>251</v>
       </c>
     </row>
@@ -10770,10 +10766,10 @@
       <c r="B12" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C12" s="36" t="n">
+      <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>252</v>
       </c>
     </row>
@@ -10784,10 +10780,10 @@
       <c r="B13" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C13" s="36" t="n">
+      <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10798,10 +10794,10 @@
       <c r="B14" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="36" t="n">
+      <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>254</v>
       </c>
     </row>
@@ -10812,10 +10808,10 @@
       <c r="B15" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>255</v>
       </c>
     </row>
@@ -10826,10 +10822,10 @@
       <c r="B16" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="36" t="n">
+      <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>256</v>
       </c>
     </row>
@@ -10840,10 +10836,10 @@
       <c r="B17" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10854,10 +10850,10 @@
       <c r="B18" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="36" t="n">
+      <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>258</v>
       </c>
     </row>
@@ -10868,10 +10864,10 @@
       <c r="B19" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="36" t="n">
+      <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10882,10 +10878,10 @@
       <c r="B20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10896,10 +10892,10 @@
       <c r="B21" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>262</v>
       </c>
     </row>
@@ -10910,10 +10906,10 @@
       <c r="B22" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="36" t="n">
+      <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10924,10 +10920,10 @@
       <c r="B23" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="36" t="n">
+      <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>264</v>
       </c>
     </row>
@@ -10938,10 +10934,10 @@
       <c r="B24" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C24" s="36" t="n">
+      <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10952,10 +10948,10 @@
       <c r="B25" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="36" t="n">
+      <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>266</v>
       </c>
     </row>
@@ -10966,10 +10962,10 @@
       <c r="B26" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="36" t="n">
+      <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>267</v>
       </c>
     </row>
@@ -10980,10 +10976,10 @@
       <c r="B27" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="36" t="n">
+      <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>269</v>
       </c>
     </row>
@@ -10994,10 +10990,10 @@
       <c r="B28" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C28" s="36" t="n">
+      <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="35" t="s">
         <v>270</v>
       </c>
     </row>
@@ -11008,10 +11004,10 @@
       <c r="B29" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C29" s="36" t="n">
+      <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="37" t="s">
         <v>271</v>
       </c>
     </row>
@@ -11022,10 +11018,10 @@
       <c r="B30" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="36" t="n">
+      <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="35" t="s">
         <v>272</v>
       </c>
     </row>
@@ -11036,10 +11032,10 @@
       <c r="B31" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="36" t="n">
+      <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>273</v>
       </c>
     </row>
@@ -11050,10 +11046,10 @@
       <c r="B32" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="36" t="n">
+      <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>274</v>
       </c>
     </row>
@@ -11064,10 +11060,10 @@
       <c r="B33" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C33" s="36" t="n">
+      <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>275</v>
       </c>
     </row>
@@ -11078,10 +11074,10 @@
       <c r="B34" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="36" t="n">
+      <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>276</v>
       </c>
     </row>
@@ -11092,10 +11088,10 @@
       <c r="B35" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="36" t="n">
+      <c r="C35" s="35" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="36" t="n">
+      <c r="D35" s="35" t="n">
         <v>204</v>
       </c>
     </row>
@@ -11106,10 +11102,10 @@
       <c r="B36" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="36" t="n">
+      <c r="C36" s="35" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="36" t="n">
+      <c r="D36" s="35" t="n">
         <v>220</v>
       </c>
     </row>
@@ -11120,10 +11116,10 @@
       <c r="B37" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C37" s="36" t="n">
+      <c r="C37" s="35" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="37" t="n">
+      <c r="D37" s="36" t="n">
         <v>236</v>
       </c>
     </row>
@@ -11134,10 +11130,10 @@
       <c r="B38" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C38" s="36" t="n">
+      <c r="C38" s="35" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="36" t="n">
+      <c r="D38" s="35" t="n">
         <v>252</v>
       </c>
     </row>
@@ -11148,10 +11144,10 @@
       <c r="B39" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="36" t="n">
+      <c r="C39" s="35" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="37" t="n">
+      <c r="D39" s="36" t="n">
         <v>268</v>
       </c>
     </row>
@@ -11162,10 +11158,10 @@
       <c r="B40" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C40" s="36" t="n">
+      <c r="C40" s="35" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="37" t="n">
+      <c r="D40" s="36" t="n">
         <v>284</v>
       </c>
     </row>
@@ -11176,10 +11172,10 @@
       <c r="B41" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C41" s="36" t="n">
+      <c r="C41" s="35" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="37" t="n">
+      <c r="D41" s="36" t="n">
         <v>300</v>
       </c>
     </row>
@@ -11190,10 +11186,10 @@
       <c r="B42" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C42" s="36" t="n">
+      <c r="C42" s="35" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="37" t="n">
+      <c r="D42" s="36" t="n">
         <v>316</v>
       </c>
     </row>
@@ -11204,10 +11200,10 @@
       <c r="B43" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="36" t="n">
+      <c r="C43" s="35" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="36" t="n">
+      <c r="D43" s="35" t="n">
         <v>207</v>
       </c>
     </row>
@@ -11218,10 +11214,10 @@
       <c r="B44" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="36" t="n">
+      <c r="C44" s="35" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="36" t="n">
+      <c r="D44" s="35" t="n">
         <v>223</v>
       </c>
     </row>
@@ -11232,10 +11228,10 @@
       <c r="B45" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C45" s="36" t="n">
+      <c r="C45" s="35" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="37" t="n">
+      <c r="D45" s="36" t="n">
         <v>239</v>
       </c>
     </row>
@@ -11246,10 +11242,10 @@
       <c r="B46" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C46" s="36" t="n">
+      <c r="C46" s="35" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="36" t="n">
+      <c r="D46" s="35" t="n">
         <v>255</v>
       </c>
     </row>
@@ -11260,10 +11256,10 @@
       <c r="B47" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="36" t="n">
+      <c r="C47" s="35" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="37" t="n">
+      <c r="D47" s="36" t="n">
         <v>271</v>
       </c>
     </row>
@@ -11274,10 +11270,10 @@
       <c r="B48" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C48" s="36" t="n">
+      <c r="C48" s="35" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="37" t="n">
+      <c r="D48" s="36" t="n">
         <v>287</v>
       </c>
     </row>
@@ -11288,10 +11284,10 @@
       <c r="B49" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="36" t="n">
+      <c r="C49" s="35" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="37" t="n">
+      <c r="D49" s="36" t="n">
         <v>303</v>
       </c>
     </row>
@@ -11302,10 +11298,10 @@
       <c r="B50" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="36" t="n">
+      <c r="C50" s="35" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="37" t="n">
+      <c r="D50" s="36" t="n">
         <v>319</v>
       </c>
     </row>
@@ -11339,32 +11335,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>55</v>
+      <c r="B2" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>75</v>
+      <c r="B3" s="38" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
+++ b/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="283">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -294,16 +294,16 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">28/06/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-28T11:08:03Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9f905c71d72c353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.ed4dab6564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">03/07/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-03T09:31:26Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4aae42113bb6500d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.627bf4698b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -320,13 +320,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:08:04Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca1a580fb9947c5f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.fabd5882e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T09:31:28Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09f76b178eb5cee7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.2f6418c824^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT3</t>
@@ -337,10 +337,13 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">a29fefb72bf6851d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.964bf0097c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T09:31:29Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5055907e75fd5a90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.3b6888ab65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT4</t>
@@ -351,13 +354,10 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:08:05Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e5dd4d2d08890fb3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.ed25f09c6a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">86cffc1f8f1d6b6e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.54f6164e4b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -413,7 +413,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">bcf04051095d08bc</t>
+    <t xml:space="preserve">dc5e041aade6570d</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
@@ -481,7 +481,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">9aad60600bfa691e</t>
+    <t xml:space="preserve">2023-07-03T09:31:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7086ece4536b2d74</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
@@ -502,10 +505,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">371f35fe34c38ab8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.447814d503^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">8466102e12f8696d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.2fc5e5addb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -516,13 +519,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:08:06Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abd12ac26028cc0d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b16a712f28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T09:31:31Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e924c44b295fbf0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.8e7b45b212^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT7_KO</t>
@@ -533,10 +536,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">937e3d0021dc7d95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.5e126b1a7b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">ddd7850573a8d6e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.86d44f3bd7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT8_KO</t>
@@ -547,10 +550,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">08e5fccf79f4994b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b5fcab4e07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T09:31:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28905e73f1acfdd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.e49013845e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT9_KO</t>
@@ -561,10 +567,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">7944411e762856f9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.75bb782c0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">c6e78215e8020445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.aecba51134^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT10_KO</t>
@@ -575,13 +581,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:08:07Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48baeb1ff4b3565f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.b725af42c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">faf774fa8695d154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.25c4face18^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT11_KO</t>
@@ -592,10 +595,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">2ad2367e545082fa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.521820a437^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T09:31:33Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0a6ab266b5c79f6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.f3682974fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT12_KO</t>
@@ -606,10 +612,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t xml:space="preserve">8702f1aa8717b58f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.525d35d202^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">14d59ca56b8c3e9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.fc55853d38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT13_KO</t>
@@ -653,16 +659,16 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:07Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9e5b8edb6a4642b8</t>
+    <t xml:space="preserve">2023-07-03T10:45:34Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41e8b19bc4701ee1</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">6c6c08f7d4d1bb24</t>
+    <t xml:space="preserve">fc6e66561ebddc19</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -677,13 +683,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:05Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3263cf2e25d221b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.7321fff1d8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T10:45:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0fa32cc3aa2277e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.96faa707d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -695,13 +701,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:06Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b835a688515b103b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.23d1b37c3f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T10:45:33Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dc78c5faf1fb8bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.d7a7ec70d0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT3</t>
@@ -713,10 +719,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">5075cd16c7080d08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.1ef19a437a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">14c16ee2b5baf6ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.88b66b8ee6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT4</t>
@@ -728,10 +734,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">8009993b351da950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.e0ed9d95e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">65de0533ec16be9a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.1f00662e04^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT5_KO</t>
@@ -741,10 +747,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">280f11f8441ebb43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.bc41446822^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">e02b351a5a9e490c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.4981054bf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT6_KO</t>
@@ -755,13 +761,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:08Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ef312f44d11518c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.4ac6ed43a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T10:45:35Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca536158d4a7e103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.c236e10797^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT7_KO</t>
@@ -772,10 +778,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">db49902b45109119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.40875097e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">498cbad7d3473874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.69af3b212b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -786,10 +792,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">33dec3b70c6dfa6c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.1f32349700^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">e5b0a38bb1d08c24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.da966db4f4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
@@ -800,13 +806,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:09Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bc043c38f9a527b7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.f574902808^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">1f26190981809083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.7c8a149923^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
@@ -817,10 +820,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">eb5e2535382ee123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.91a0e6bb94^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T10:45:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32af7ebbcf5a2ec5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.e88122c1c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT11_KO</t>
@@ -831,10 +837,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">bb8a35c64b86251f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.fc80418c8e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">e15fd0b4d0dded4e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.cf55e07830^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT12_KO</t>
@@ -845,10 +851,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">977766f733552b8e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.5bcd4a173b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">e3f0f1e9768dcbb1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.7da5dc2fbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -858,10 +864,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">d8e1822297329377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.297fe0622f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T10:45:37Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43d3a8bbcb96cb65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.2ad52e0c35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
@@ -871,13 +880,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:10Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5e9f902ef1b2da41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.04599a9275^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">9892dfd633985753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.9d54a220c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -888,10 +894,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">7e9d1a6accf2b863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.96c373873a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">d90caf1e213d788f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.0126b4eea4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
@@ -902,10 +908,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">584b241283a33a80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.0c4117e19f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">0dc471ea77b257e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.8f2fc14ba1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
@@ -956,13 +962,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-06-28T11:09:11Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1399f6bd0b965bc9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.5813dc0c9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2023-07-03T10:45:38Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">736bd5d3b8355488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.e3fa5f21b3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
@@ -973,10 +979,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">45a40b72fbd1d62c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.59aa55fea9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">ac2d64af2bbac9a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.6628cd9473889b33cdd542f0cd69c9c7a9df12deebb3c171355218dcdb384db5.3578a3c56e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ID TEST CASE OK</t>
@@ -1858,11 +1864,11 @@
   <dimension ref="A1:T581"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="H50" activeCellId="0" sqref="H50"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="I55" activeCellId="0" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2208,13 +2214,13 @@
         <v>52</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>56</v>
@@ -2243,16 +2249,16 @@
         <v>49</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>70</v>
@@ -2296,7 +2302,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>74</v>
@@ -2348,10 +2354,10 @@
         <v>52</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>75</v>
@@ -2391,10 +2397,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -2407,7 +2413,7 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
       <c r="P16" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
@@ -2425,22 +2431,22 @@
         <v>49</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>56</v>
@@ -2477,22 +2483,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>56</v>
@@ -2529,22 +2535,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>56</v>
@@ -2581,22 +2587,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>56</v>
@@ -2633,22 +2639,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>56</v>
@@ -2685,22 +2691,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>56</v>
@@ -2737,22 +2743,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>56</v>
@@ -2789,22 +2795,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>56</v>
@@ -2841,10 +2847,10 @@
         <v>49</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="34"/>
@@ -2854,7 +2860,7 @@
         <v>76</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -2879,10 +2885,10 @@
         <v>49</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="34"/>
@@ -2892,7 +2898,7 @@
         <v>76</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
@@ -2917,10 +2923,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="34"/>
@@ -2930,7 +2936,7 @@
         <v>76</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -2955,10 +2961,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -2968,7 +2974,7 @@
         <v>76</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -2990,10 +2996,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>73</v>
@@ -3002,10 +3008,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>75</v>
@@ -3042,10 +3048,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>80</v>
@@ -3054,10 +3060,10 @@
         <v>52</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>75</v>
@@ -3094,13 +3100,13 @@
         <v>48</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -3113,7 +3119,7 @@
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
       <c r="P31" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q31" s="29"/>
       <c r="R31" s="30"/>
@@ -3130,25 +3136,25 @@
         <v>48</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>56</v>
@@ -3174,25 +3180,25 @@
         <v>48</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>56</v>
@@ -3218,25 +3224,25 @@
         <v>48</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>56</v>
@@ -3262,25 +3268,25 @@
         <v>48</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>56</v>
@@ -3306,25 +3312,25 @@
         <v>48</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J36" s="29" t="s">
         <v>56</v>
@@ -3358,25 +3364,25 @@
         <v>48</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J37" s="29" t="s">
         <v>56</v>
@@ -3410,25 +3416,25 @@
         <v>48</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J38" s="29" t="s">
         <v>56</v>
@@ -3462,25 +3468,25 @@
         <v>48</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J39" s="29" t="s">
         <v>56</v>
@@ -3514,25 +3520,25 @@
         <v>48</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J40" s="29" t="s">
         <v>56</v>
@@ -3566,25 +3572,25 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J41" s="29" t="s">
         <v>56</v>
@@ -3618,25 +3624,25 @@
         <v>48</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J42" s="29" t="s">
         <v>56</v>
@@ -3670,25 +3676,25 @@
         <v>48</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F43" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>56</v>
@@ -3722,25 +3728,25 @@
         <v>48</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F44" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J44" s="29" t="s">
         <v>56</v>
@@ -3774,25 +3780,25 @@
         <v>48</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F45" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="J45" s="29" t="s">
         <v>56</v>
@@ -3826,25 +3832,25 @@
         <v>48</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F46" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J46" s="29" t="s">
         <v>56</v>
@@ -3878,25 +3884,25 @@
         <v>48</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F47" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>56</v>
@@ -3930,13 +3936,13 @@
         <v>48</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="34"/>
@@ -3946,7 +3952,7 @@
         <v>76</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -3968,13 +3974,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="34"/>
@@ -3984,7 +3990,7 @@
         <v>76</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
@@ -4006,13 +4012,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="34"/>
@@ -4022,7 +4028,7 @@
         <v>76</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -4044,13 +4050,13 @@
         <v>48</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="34"/>
@@ -4060,7 +4066,7 @@
         <v>76</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
@@ -4082,13 +4088,13 @@
         <v>48</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="34"/>
@@ -4098,7 +4104,7 @@
         <v>76</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
@@ -4120,25 +4126,25 @@
         <v>48</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>56</v>
@@ -4172,25 +4178,25 @@
         <v>48</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F54" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>56</v>
@@ -10613,24 +10619,24 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10638,125 +10644,125 @@
         <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10764,111 +10770,111 @@
         <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10876,111 +10882,111 @@
         <v>49</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10988,105 +10994,105 @@
         <v>49</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -11100,7 +11106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -11111,10 +11117,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -11125,10 +11131,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -11139,10 +11145,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -11153,10 +11159,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -11167,10 +11173,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -11181,10 +11187,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -11195,10 +11201,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -11212,7 +11218,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -11223,10 +11229,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -11237,10 +11243,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -11251,10 +11257,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -11265,10 +11271,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -11279,10 +11285,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -11293,10 +11299,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -11344,7 +11350,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>56</v>
@@ -11352,7 +11358,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>76</v>

--- a/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
+++ b/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="284">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">In caso di errore verrà coinvolto l’ufficio idoneo alla sua correzione</t>
+    <t xml:space="preserve">L'invio al gateway è asincrono e il medico prosegue con la propria attività. In caso di errore viene inviata al medico e al personale amministrativo una notifica. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato alla coda che in maniera automatica e schedulata (intervallo configurabile) ritenta l’invio verso il gateway </t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -494,7 +494,7 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t xml:space="preserve">Il documento viene inserito nella coda per un ulteriore tentativo di validazione</t>
+    <t xml:space="preserve">In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto alla coda che in maniera automatica e schedulata (intervallo configurabile) ritenta l’invio verso il gateway</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT5_KO</t>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.2fc5e5addb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'invio al gateway è asincrono e il medico prosegue con la propria attività. In caso di errore viene inviata al medico e al personale amministrativo una notifica. Dopo che l'errore è stato corretto dal medico, il referto può essere firmato nuovamente e inviato alla coda che in maniera automatica e schedulata (intervallo configurabile) ritenta l’invio verso il gateway </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1864,11 +1867,11 @@
   <dimension ref="A1:T581"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="I55" activeCellId="0" sqref="I55"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="P53" activeCellId="0" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2282,7 +2285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>29</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="n">
         <v>37</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="n">
         <v>45</v>
       </c>
@@ -2420,7 +2423,7 @@
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="n">
         <v>63</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>56</v>
       </c>
       <c r="P17" s="29" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
@@ -2472,7 +2475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="n">
         <v>64</v>
       </c>
@@ -2483,22 +2486,22 @@
         <v>49</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J18" s="29" t="s">
         <v>56</v>
@@ -2524,7 +2527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="147.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>65</v>
       </c>
@@ -2535,22 +2538,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>56</v>
@@ -2567,7 +2570,7 @@
         <v>56</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
@@ -2576,7 +2579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>66</v>
       </c>
@@ -2587,22 +2590,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>56</v>
@@ -2628,7 +2631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>67</v>
       </c>
@@ -2639,22 +2642,22 @@
         <v>49</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>56</v>
@@ -2680,7 +2683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>68</v>
       </c>
@@ -2691,22 +2694,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>56</v>
@@ -2732,7 +2735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>69</v>
       </c>
@@ -2743,22 +2746,22 @@
         <v>49</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J23" s="29" t="s">
         <v>56</v>
@@ -2784,7 +2787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
         <v>70</v>
       </c>
@@ -2795,22 +2798,22 @@
         <v>49</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J24" s="29" t="s">
         <v>56</v>
@@ -2847,10 +2850,10 @@
         <v>49</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="34"/>
@@ -2860,7 +2863,7 @@
         <v>76</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
@@ -2885,10 +2888,10 @@
         <v>49</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="34"/>
@@ -2898,7 +2901,7 @@
         <v>76</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
@@ -2923,10 +2926,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="34"/>
@@ -2936,7 +2939,7 @@
         <v>76</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -2961,10 +2964,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -2974,7 +2977,7 @@
         <v>76</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -2988,7 +2991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>32</v>
       </c>
@@ -2996,10 +2999,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>73</v>
@@ -3008,10 +3011,10 @@
         <v>52</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>75</v>
@@ -3040,7 +3043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>40</v>
       </c>
@@ -3048,10 +3051,10 @@
         <v>48</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>80</v>
@@ -3060,10 +3063,10 @@
         <v>52</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>75</v>
@@ -3092,7 +3095,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="n">
         <v>48</v>
       </c>
@@ -3100,10 +3103,10 @@
         <v>48</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>84</v>
@@ -3136,25 +3139,25 @@
         <v>48</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F32" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J32" s="29" t="s">
         <v>56</v>
@@ -3180,25 +3183,25 @@
         <v>48</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>56</v>
@@ -3224,25 +3227,25 @@
         <v>48</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>56</v>
@@ -3268,25 +3271,25 @@
         <v>48</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F35" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>56</v>
@@ -3304,7 +3307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>151</v>
       </c>
@@ -3312,25 +3315,25 @@
         <v>48</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F36" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J36" s="29" t="s">
         <v>56</v>
@@ -3347,7 +3350,7 @@
         <v>56</v>
       </c>
       <c r="P36" s="29" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="29"/>
       <c r="R36" s="30"/>
@@ -3356,7 +3359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>152</v>
       </c>
@@ -3364,25 +3367,25 @@
         <v>48</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J37" s="29" t="s">
         <v>56</v>
@@ -3408,7 +3411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="147.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>153</v>
       </c>
@@ -3416,25 +3419,25 @@
         <v>48</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F38" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J38" s="29" t="s">
         <v>56</v>
@@ -3451,7 +3454,7 @@
         <v>56</v>
       </c>
       <c r="P38" s="29" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="29"/>
       <c r="R38" s="30"/>
@@ -3460,7 +3463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>154</v>
       </c>
@@ -3468,25 +3471,25 @@
         <v>48</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J39" s="29" t="s">
         <v>56</v>
@@ -3512,7 +3515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>155</v>
       </c>
@@ -3520,25 +3523,25 @@
         <v>48</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F40" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J40" s="29" t="s">
         <v>56</v>
@@ -3564,7 +3567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>156</v>
       </c>
@@ -3572,25 +3575,25 @@
         <v>48</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J41" s="29" t="s">
         <v>56</v>
@@ -3616,7 +3619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>157</v>
       </c>
@@ -3624,25 +3627,25 @@
         <v>48</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J42" s="29" t="s">
         <v>56</v>
@@ -3668,7 +3671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>158</v>
       </c>
@@ -3676,25 +3679,25 @@
         <v>48</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F43" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>56</v>
@@ -3720,7 +3723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>159</v>
       </c>
@@ -3728,25 +3731,25 @@
         <v>48</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F44" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J44" s="29" t="s">
         <v>56</v>
@@ -3772,7 +3775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>160</v>
       </c>
@@ -3780,25 +3783,25 @@
         <v>48</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F45" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J45" s="29" t="s">
         <v>56</v>
@@ -3824,7 +3827,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>161</v>
       </c>
@@ -3832,25 +3835,25 @@
         <v>48</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F46" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J46" s="29" t="s">
         <v>56</v>
@@ -3876,7 +3879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>162</v>
       </c>
@@ -3884,25 +3887,25 @@
         <v>48</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F47" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>56</v>
@@ -3936,13 +3939,13 @@
         <v>48</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="34"/>
@@ -3952,7 +3955,7 @@
         <v>76</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
@@ -3974,13 +3977,13 @@
         <v>48</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="34"/>
@@ -3990,7 +3993,7 @@
         <v>76</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
@@ -4012,13 +4015,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="34"/>
@@ -4028,7 +4031,7 @@
         <v>76</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
@@ -4050,13 +4053,13 @@
         <v>48</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="34"/>
@@ -4066,7 +4069,7 @@
         <v>76</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
@@ -4088,13 +4091,13 @@
         <v>48</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="34"/>
@@ -4104,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="K52" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
@@ -4118,7 +4121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>168</v>
       </c>
@@ -4126,25 +4129,25 @@
         <v>48</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>56</v>
@@ -4170,7 +4173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>169</v>
       </c>
@@ -4178,25 +4181,25 @@
         <v>48</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F54" s="28" t="s">
         <v>52</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>56</v>
@@ -10619,24 +10622,24 @@
         <v>29</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10644,125 +10647,125 @@
         <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C10" s="35" t="n">
         <v>191</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C11" s="35" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10770,111 +10773,111 @@
         <v>49</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C12" s="35" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C13" s="35" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C14" s="35" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C15" s="35" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C16" s="35" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C17" s="35" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C18" s="35" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C19" s="35" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10882,111 +10885,111 @@
         <v>49</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C20" s="35" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C21" s="35" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C22" s="35" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" s="35" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" s="35" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C25" s="35" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="35" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C27" s="35" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10994,105 +10997,105 @@
         <v>49</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C28" s="35" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29" s="35" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="35" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="35" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C32" s="35" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C33" s="35" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" s="35" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C35" s="35" t="n">
         <v>195</v>
@@ -11106,7 +11109,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C36" s="35" t="n">
         <v>211</v>
@@ -11117,10 +11120,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="35" t="n">
         <v>227</v>
@@ -11131,10 +11134,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C38" s="35" t="n">
         <v>243</v>
@@ -11145,10 +11148,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C39" s="35" t="n">
         <v>259</v>
@@ -11159,10 +11162,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C40" s="35" t="n">
         <v>275</v>
@@ -11173,10 +11176,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C41" s="35" t="n">
         <v>291</v>
@@ -11187,10 +11190,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C42" s="35" t="n">
         <v>307</v>
@@ -11201,10 +11204,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="35" t="n">
         <v>196</v>
@@ -11218,7 +11221,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C44" s="35" t="n">
         <v>212</v>
@@ -11229,10 +11232,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" s="35" t="n">
         <v>228</v>
@@ -11243,10 +11246,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="35" t="n">
         <v>244</v>
@@ -11257,10 +11260,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C47" s="35" t="n">
         <v>260</v>
@@ -11271,10 +11274,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C48" s="35" t="n">
         <v>276</v>
@@ -11285,10 +11288,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C49" s="35" t="n">
         <v>292</v>
@@ -11299,10 +11302,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C50" s="35" t="n">
         <v>308</v>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>56</v>
@@ -11358,7 +11361,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>76</v>

--- a/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
+++ b/GATEWAY/A1#090903000000XX/AOUCAREGGI/ARCHIMED/8.48/report-checklist.xlsx
@@ -422,7 +422,7 @@
     <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">L'invio al gateway è asincrono e il medico prosegue con la propria attività. In caso di errore viene inviata al medico e al personale amministrativo una notifica. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato alla coda che in maniera automatica e schedulata (intervallo configurabile) ritenta l’invio verso il gateway </t>
+    <t xml:space="preserve">L'invio al gateway è asincrono per permettere al medico di proseguire con la propria attività clinica. Sia il medico che il backoffice hanno a disposizione un cruscotto che mostra i messaggi non andati a buon fine con la descrizione dell'errore. Una volta che l'errore è stato corretto dal medico o dal backoffice, il documento rientra nella coda di firma e di ritrasmissione verso il gateway.</t>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -511,7 +511,7 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.90903.45c9c160458635a842a60b21f2db53b82a1a6d5d071ffca01fa8fc826915cbf3.2fc5e5addb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">L'invio al gateway è asincrono e il medico prosegue con la propria attività. In caso di errore viene inviata al medico e al personale amministrativo una notifica. Dopo che l'errore è stato corretto dal medico, il referto può essere firmato nuovamente e inviato alla coda che in maniera automatica e schedulata (intervallo configurabile) ritenta l’invio verso il gateway </t>
+    <t xml:space="preserve">L'invio al gateway è asincrono per permettere al medico di proseguire con la propria attività clinica. Sia il medico che il backoffice hanno a disposizione un cruscotto che mostra i messaggi non andati a buon fine con la descrizione dell'errore. Una volta che l'errore è stato corretto dal medico, in maniera autonoma o su segnalazione del backoffice, il documento rientra nella coda di firma e di ritrasmissione verso il gateway.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT6_KO</t>
@@ -1867,11 +1867,11 @@
   <dimension ref="A1:T581"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="P53" activeCellId="0" sqref="P53"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="P36" activeCellId="0" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2285,7 +2285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="n">
         <v>29</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="n">
         <v>37</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="n">
         <v>63</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="n">
         <v>64</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="147.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="n">
         <v>65</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="n">
         <v>66</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="n">
         <v>67</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>68</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>69</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
         <v>70</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>32</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>40</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>151</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>152</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="147.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="170.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>153</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>154</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>155</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>156</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>157</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>158</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>159</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>160</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>161</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="n">
         <v>162</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>168</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>169</v>
       </c>
